--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.875999999999999</v>
+        <v>5.855</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.034</v>
+        <v>9.019</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>8.154</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.17</v>
+        <v>-12.015</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.209999999999999</v>
+        <v>5.922000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.782</v>
+        <v>-12.874</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.6</v>
+        <v>-13.519</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.846</v>
+        <v>-11.205</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.784</v>
+        <v>-13.082</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.152</v>
+        <v>-11.131</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.212</v>
+        <v>5.281</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.394</v>
+        <v>-10.908</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.786</v>
+        <v>-13.409</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.876</v>
+        <v>5.028999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.700000000000001</v>
+        <v>4.708</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.696</v>
+        <v>5.726</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.58</v>
+        <v>-11.052</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.488</v>
+        <v>5.577</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.279999999999999</v>
+        <v>5.165999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.82</v>
+        <v>-13.893</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.67</v>
+        <v>-13.345</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.434</v>
+        <v>5.131000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.816</v>
+        <v>-12.26</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
